--- a/ERP/db.xlsx
+++ b/ERP/db.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="簡稱" sheetId="2" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,29 +19,985 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateIn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateOut</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateCreate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateModify</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HandleType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HandleDate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HandlePerson</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Handle Process</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateCreate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateModify</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+送服務站
+寄原廠
+門市處理</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Gender</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+enable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Manufacturer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Model</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Version
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Enable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同型號、同</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rev</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">的商品就會有一筆商品類別
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>good_category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Model</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Description</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+consumable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>代碼運作
+GoodType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>協助描述商品類別的規格
+不須區分商品類型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">
+要記錄商品序號
+要區分新品與二手品
+跟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>聯強</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>進</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ASUS   P51-Delux
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>捷元</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>進</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ASUS   P51-Delux
+001   </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>聯強</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    A    Syn01
+002   </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>捷元</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    A    Gen01
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+amount</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Date Manufacture</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateCreate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DateModify</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
-  <si>
-    <t>rma_no</t>
-  </si>
-  <si>
-    <t>cust_no</t>
-  </si>
-  <si>
-    <t>rma_date_in</t>
-  </si>
-  <si>
-    <t>rma_date_out</t>
-  </si>
-  <si>
-    <t>rma_main_remark1</t>
-  </si>
-  <si>
-    <t>rma_main_remark2</t>
-  </si>
-  <si>
-    <t>rma_main</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="276">
   <si>
     <t>P</t>
   </si>
@@ -48,90 +1005,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>pro_no</t>
-  </si>
-  <si>
-    <t>rma_pro_sn</t>
-  </si>
-  <si>
-    <t>rma_broken_reason</t>
-  </si>
-  <si>
-    <t>rma_handle_tyle</t>
-  </si>
-  <si>
-    <t>rma_handle_date_begin</t>
-  </si>
-  <si>
-    <t>rma_handle_person</t>
-  </si>
-  <si>
-    <t>rma_handle_date_end</t>
-  </si>
-  <si>
-    <t>rma_handle_process</t>
-  </si>
-  <si>
-    <t>rma_detail_remark1</t>
-  </si>
-  <si>
-    <t>rma_detail_remark2</t>
-  </si>
-  <si>
-    <t>rma_detail</t>
-  </si>
-  <si>
-    <t>cust_na</t>
-  </si>
-  <si>
-    <t>cust_tel1</t>
-  </si>
-  <si>
-    <t>cust_tel2</t>
-  </si>
-  <si>
-    <t>cust_addr1</t>
-  </si>
-  <si>
-    <t>cust_addr2</t>
-  </si>
-  <si>
-    <t>cust_gender</t>
-  </si>
-  <si>
-    <t>cust_remark1</t>
-  </si>
-  <si>
-    <t>cust_remark2</t>
-  </si>
-  <si>
-    <t>cust_enable</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>pro_manufacturer</t>
-  </si>
-  <si>
-    <t>pro_model_na</t>
-  </si>
-  <si>
-    <t>pro_version</t>
-  </si>
-  <si>
-    <t>pro_remark1</t>
-  </si>
-  <si>
-    <t>pro_remark2</t>
-  </si>
-  <si>
-    <t>pro_enable</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <r>
       <t>RMA</t>
     </r>
@@ -526,13 +1399,1449 @@
       </rPr>
       <t>產品版本</t>
     </r>
+  </si>
+  <si>
+    <t>RmaNo</t>
+  </si>
+  <si>
+    <t>CustNo</t>
+  </si>
+  <si>
+    <t>ProNo</t>
+  </si>
+  <si>
+    <t>CustRk1</t>
+  </si>
+  <si>
+    <t>CustRk2</t>
+  </si>
+  <si>
+    <t>Cust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustTel1</t>
+  </si>
+  <si>
+    <t>CustTel2</t>
+  </si>
+  <si>
+    <t>RmaProSn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaRs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaHaTy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaHaPe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaMRk2</t>
+  </si>
+  <si>
+    <t>RmaM</t>
+  </si>
+  <si>
+    <t>RmaDRk1</t>
+  </si>
+  <si>
+    <t>RmaDRk2</t>
+  </si>
+  <si>
+    <t>RmaD</t>
+  </si>
+  <si>
+    <t>RmaDtHa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaDtEd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustGd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustAdr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustAdr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaHaPc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaDDtC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaDDtM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaMDtC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaMDtM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaMRk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaMDtO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaMDtI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品類別編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gd_a_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_lot_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>oi_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨批號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建立日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>修改日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品類別表</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品類別編號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品類型編號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廠商編號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品型號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品條碼</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品描述</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是否為耗材</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品類型表</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品類型名稱</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCa</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmaProNo</t>
+  </si>
+  <si>
+    <t>RmaProMf</t>
+  </si>
+  <si>
+    <t>RmaProMd</t>
+  </si>
+  <si>
+    <t>RmaProVer</t>
+  </si>
+  <si>
+    <t>RmaProRk1</t>
+  </si>
+  <si>
+    <t>RmaProRk2</t>
+  </si>
+  <si>
+    <t>RmaProEn</t>
+  </si>
+  <si>
+    <t>GdTy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdTyNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdTyNa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdTyRk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商資料表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商名稱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商統編</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢維修電話</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務手機</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>經銷商網址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>月結付款日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCaNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類商品表</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品編號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進貨批號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品類別編號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>進貨編號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>庫存量</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>賣出量</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>售價</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品序號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>製造日期</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品規格明細表</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格編號</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格名稱</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規格描述</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrNa</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrTel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrRmaTel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrSalNa</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrSalTel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrUrl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrAdr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrDtPay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrRk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrDtC</t>
+  </si>
+  <si>
+    <t>VdrDtM</t>
+  </si>
+  <si>
+    <t>GdCaMd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCaBar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCaDes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdSpec</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdSpecNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdSpecNa</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdSpecDes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdSpecRk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCaRk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCaCs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdaNo</t>
+  </si>
+  <si>
+    <t>GdaAmt</t>
+  </si>
+  <si>
+    <t>GdaAmtSold</t>
+  </si>
+  <si>
+    <t>GdaPri</t>
+  </si>
+  <si>
+    <t>GdaSn</t>
+  </si>
+  <si>
+    <t>GdaDtMf</t>
+  </si>
+  <si>
+    <t>GdaRk</t>
+  </si>
+  <si>
+    <t>Gda</t>
+  </si>
+  <si>
+    <t>進貨主檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商出貨單號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨明細檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨單價</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨主檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>發票號碼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨明細檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單主檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單明細表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品類別編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>oiNo</t>
+  </si>
+  <si>
+    <t>oi_vdNo</t>
+  </si>
+  <si>
+    <t>od_lotNo</t>
+  </si>
+  <si>
+    <t>gcNo</t>
+  </si>
+  <si>
+    <t>smNo</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>sm_invoceNo</t>
+  </si>
+  <si>
+    <t>gd_aNo</t>
+  </si>
+  <si>
+    <t>emNo</t>
+  </si>
+  <si>
+    <t>oiRk</t>
+  </si>
+  <si>
+    <t>odRk</t>
+  </si>
+  <si>
+    <t>smRk</t>
+  </si>
+  <si>
+    <t>sdRk</t>
+  </si>
+  <si>
+    <t>emRk</t>
+  </si>
+  <si>
+    <t>edRk</t>
+  </si>
+  <si>
+    <t>odAmt</t>
+  </si>
+  <si>
+    <t>sdAmt</t>
+  </si>
+  <si>
+    <t>edAmt</t>
+  </si>
+  <si>
+    <t>oiDt</t>
+  </si>
+  <si>
+    <t>smDt</t>
+  </si>
+  <si>
+    <t>emDt</t>
+  </si>
+  <si>
+    <t>saleM</t>
+  </si>
+  <si>
+    <t>evaM</t>
+  </si>
+  <si>
+    <t>saleD</t>
+  </si>
+  <si>
+    <t>evaD</t>
+  </si>
+  <si>
+    <t>odPri</t>
+  </si>
+  <si>
+    <t>oiAmt</t>
+  </si>
+  <si>
+    <t>smAmt</t>
+  </si>
+  <si>
+    <t>Dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp_num</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp_rk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_pack</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdTy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品組合表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品組合編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtM</t>
+  </si>
+  <si>
+    <t>OrdInvtD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,8 +2869,43 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +2924,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -593,11 +2943,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -606,6 +2971,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
@@ -918,301 +3284,1737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L16"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="34" style="2"/>
+    <col min="1" max="1" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="34" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:24" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+    </row>
+    <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+    </row>
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ERP/db.xlsx
+++ b/ERP/db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="簡稱" sheetId="2" r:id="rId1"/>
@@ -997,7 +997,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="283">
   <si>
     <t>P</t>
   </si>
@@ -2430,9 +2430,6 @@
     <t>GdaNo</t>
   </si>
   <si>
-    <t>GdaAmt</t>
-  </si>
-  <si>
     <t>GdaAmtSold</t>
   </si>
   <si>
@@ -2475,35 +2472,316 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>銷貨主檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>發票號碼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨明細檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>數量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>銷貨主檔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷貨編號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶編號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>發票號碼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷貨日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷貨明細檔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷貨編號</t>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單主檔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價日期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單明細表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價單號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品類別編號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcNo</t>
+  </si>
+  <si>
+    <t>smNo</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>sm_invoceNo</t>
+  </si>
+  <si>
+    <t>gd_aNo</t>
+  </si>
+  <si>
+    <t>emNo</t>
+  </si>
+  <si>
+    <t>smRk</t>
+  </si>
+  <si>
+    <t>sdRk</t>
+  </si>
+  <si>
+    <t>emRk</t>
+  </si>
+  <si>
+    <t>edRk</t>
+  </si>
+  <si>
+    <t>sdAmt</t>
+  </si>
+  <si>
+    <t>edAmt</t>
+  </si>
+  <si>
+    <t>smDt</t>
+  </si>
+  <si>
+    <t>emDt</t>
+  </si>
+  <si>
+    <t>saleM</t>
+  </si>
+  <si>
+    <t>evaM</t>
+  </si>
+  <si>
+    <t>saleD</t>
+  </si>
+  <si>
+    <t>evaD</t>
+  </si>
+  <si>
+    <t>smAmt</t>
+  </si>
+  <si>
+    <t>Dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp_num</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gp_rk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>good_pack</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdTy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdCa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GdSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vendor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serial Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品組合表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品組合編號</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2519,199 +2797,65 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>估價單主檔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>估價單號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>估價日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>估價單明細表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>估價單號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品類別編號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>數量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>oiNo</t>
-  </si>
-  <si>
-    <t>oi_vdNo</t>
-  </si>
-  <si>
-    <t>od_lotNo</t>
-  </si>
-  <si>
-    <t>gcNo</t>
-  </si>
-  <si>
-    <t>smNo</t>
-  </si>
-  <si>
-    <t>custNo</t>
-  </si>
-  <si>
-    <t>sm_invoceNo</t>
-  </si>
-  <si>
-    <t>gd_aNo</t>
-  </si>
-  <si>
-    <t>emNo</t>
-  </si>
-  <si>
-    <t>oiRk</t>
-  </si>
-  <si>
-    <t>odRk</t>
-  </si>
-  <si>
-    <t>smRk</t>
-  </si>
-  <si>
-    <t>sdRk</t>
-  </si>
-  <si>
-    <t>emRk</t>
-  </si>
-  <si>
-    <t>edRk</t>
-  </si>
-  <si>
-    <t>odAmt</t>
-  </si>
-  <si>
-    <t>sdAmt</t>
-  </si>
-  <si>
-    <t>edAmt</t>
-  </si>
-  <si>
-    <t>oiDt</t>
-  </si>
-  <si>
-    <t>smDt</t>
-  </si>
-  <si>
-    <t>emDt</t>
-  </si>
-  <si>
-    <t>saleM</t>
-  </si>
-  <si>
-    <t>evaM</t>
-  </si>
-  <si>
-    <t>saleD</t>
-  </si>
-  <si>
-    <t>evaD</t>
-  </si>
-  <si>
-    <t>odPri</t>
-  </si>
-  <si>
-    <t>oiAmt</t>
-  </si>
-  <si>
-    <t>smAmt</t>
-  </si>
-  <si>
-    <t>Dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DtI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DtO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DtC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DtM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gp_no</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gp_num</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gp_rk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>good_pack</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amt</t>
+    <t>OrdInvtM</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VdrShipNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtNo</t>
+  </si>
+  <si>
+    <t>OrdInvtDt</t>
+  </si>
+  <si>
+    <t>OrdInvtNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtLotNo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtPri</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨數量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtDRk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtMRk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtTotalAmt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2719,129 +2863,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GdTy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GdCa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GdSpec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Na</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vdr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serial Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品組合表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品組合編號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品編號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>數量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrdInvtM</t>
-  </si>
-  <si>
-    <t>OrdInvtD</t>
+    <t>GdaCot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrdInvtCot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2904,6 +2942,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2943,7 +2988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2963,6 +3008,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3063,23 +3112,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3115,23 +3147,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3284,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3295,177 +3310,200 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>246</v>
-      </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3478,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4123,22 +4161,22 @@
         <v>70</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -4156,7 +4194,7 @@
     </row>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>127</v>
@@ -4370,25 +4408,25 @@
     <row r="39" spans="1:24" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
@@ -4410,22 +4448,22 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>65</v>
@@ -4486,25 +4524,25 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -4524,9 +4562,9 @@
       <c r="W45"/>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>72</v>
@@ -4538,10 +4576,10 @@
         <v>63</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>65</v>
@@ -4580,25 +4618,25 @@
     <row r="48" spans="1:24" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -4620,22 +4658,22 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>65</v>
@@ -4682,19 +4720,19 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -4718,19 +4756,19 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -4763,16 +4801,16 @@
     <row r="58" spans="1:24" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4797,16 +4835,16 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -4847,19 +4885,19 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -4883,19 +4921,19 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -4930,19 +4968,19 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -4966,19 +5004,19 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>

--- a/ERP/db.xlsx
+++ b/ERP/db.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="簡稱" sheetId="2" r:id="rId1"/>
     <sheet name="Table" sheetId="1" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Vdr" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -752,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -819,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -843,7 +844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W24" authorId="0" shapeId="0">
+    <comment ref="W25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X24" authorId="0" shapeId="0">
+    <comment ref="X25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -902,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y24" authorId="0" shapeId="0">
+    <comment ref="Y25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -937,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -952,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -987,7 +988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
+    <comment ref="G29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
+    <comment ref="A33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0">
+    <comment ref="F33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1297,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0" shapeId="0">
+    <comment ref="F37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1321,7 +1322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J36" authorId="0" shapeId="0">
+    <comment ref="J37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0">
+    <comment ref="E41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0" shapeId="0">
+    <comment ref="F41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H40" authorId="0" shapeId="0">
+    <comment ref="H41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="293">
   <si>
     <t>P</t>
   </si>
@@ -3328,6 +3329,54 @@
   </si>
   <si>
     <t>Evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[Vdr] (
+    [rowid]     CHAR (36)      DEFAULT (newid()) NULL,
+    [VdrNo]     CHAR (8)       NOT NULL,
+    [VdrNa]     NVARCHAR (20)  NOT NULL,
+    [VdrId]     CHAR (8)       NULL,
+    [VdrTel]    VARCHAR (20)   NULL,
+    [VdrRmaTel] VARCHAR (20)   NULL,
+    [VdrSalNa]  NVARCHAR (20)  NULL,
+    [VdrSalTel] VARCHAR (20)   NULL,
+    [VdrUrl]    NVARCHAR (100) NULL,
+    [VdrAdr]    NVARCHAR (100) NULL,
+    [VdrDtPay]  VARCHAR (2)    NULL,
+    [VdrDtC]    DATETIME       NOT NULL,
+    [VdrDtM]    DATETIME       NOT NULL,
+    [VdrRk]     NVARCHAR (500) NULL,
+    [VdrEn]     CHAR (1)       NOT NULL,
+    PRIMARY KEY CLUSTERED ([VdrNo] ASC)
+);
+GO
+CREATE TRIGGER [dbo].[AutoNoVdr]
+   ON  [dbo].[Vdr]
+   AFTER INSERT
+AS
+BEGIN
+SET NOCOUNT ON;
+DECLARE @prefix_digit int
+DECLARE @no_prefix CHAR(3) = 'Vdr'
+SET @prefix_digit = LEN(@no_prefix)
+DECLARE @num_digit INT = 5
+DECLARE @rowid CHAR (36)
+DECLARE @VdrNo CHAR (50) = (SELECT VdrNo FROM inserted)
+DECLARE @seq INT
+IF(@VdrNo = '0')
+BEGIN
+SET @rowid = (SELECT rowid FROM inserted )
+SET @VdrNo = ( SELECT TOP 1 VdrNo FROM Vdr ORDER BY VdrNo DESC)
+IF (@VdrNo IS NULL OR @VdrNo = '0' )
+BEGIN
+SET @VdrNo = @no_prefix+REPLICATE('0',@num_digit)
+END
+SET @seq = CAST(right( @VdrNo ,@num_digit )AS INT)+1
+SET @VdrNo = left(@VdrNo ,@prefix_digit)+right( REPLICATE('0',@num_digit) +CAST (@seq AS NVARCHAR), @num_digit)                
+UPDATE Vdr SET VdrNo = @VdrNo WHERE VdrNo = '0'
+END
+END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3444,7 +3493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3465,6 +3514,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3754,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3994,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4441,247 +4496,238 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="23" spans="1:26" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="T26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="V26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="X26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z25" s="4" t="s">
+      <c r="Z26" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
+    <row r="30" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
@@ -4690,62 +4736,33 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>267</v>
-      </c>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
     </row>
     <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>23</v>
+      <c r="A33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -4766,11 +4783,25 @@
       <c r="W33"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34"/>
+    <row r="34" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -4790,87 +4821,63 @@
       <c r="W34"/>
       <c r="X34"/>
     </row>
-    <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+    </row>
+    <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-    </row>
-    <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -4886,19 +4893,41 @@
       <c r="W37"/>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>58</v>
-      </c>
+    <row r="38" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
@@ -4913,6 +4942,18 @@
       <c r="X38"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
@@ -4927,34 +4968,6 @@
       <c r="X39"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
@@ -4967,33 +4980,31 @@
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-    </row>
-    <row r="41" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>23</v>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -5014,76 +5025,80 @@
       <c r="Y41"/>
       <c r="Z41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="45" spans="1:26" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
@@ -5104,51 +5119,61 @@
       <c r="X47"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-    </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
@@ -5156,38 +5181,28 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-    </row>
-    <row r="51" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>56</v>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
@@ -5207,362 +5222,402 @@
       <c r="W51"/>
       <c r="X51"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:24" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:24" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-    </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E64"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-    </row>
+    <row r="65" spans="1:24" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="A68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
+      <c r="B69" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="F72"/>
       <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F74"/>
+      <c r="G74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5583,4 +5638,3484 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:X133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="9"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="9"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="9"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="9"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="9"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="9"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="9"/>
+      <c r="V133" s="9"/>
+      <c r="W133" s="9"/>
+      <c r="X133" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X133"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ERP/db.xlsx
+++ b/ERP/db.xlsx
@@ -3333,7 +3333,7 @@
   </si>
   <si>
     <t>CREATE TABLE [dbo].[Vdr] (
-    [rowid]     CHAR (36)      DEFAULT (newid()) NULL,
+    [rowid]     CHAR (36)     NULL,
     [VdrNo]     CHAR (8)       NOT NULL,
     [VdrNa]     NVARCHAR (20)  NOT NULL,
     [VdrId]     CHAR (8)       NULL,
@@ -3344,38 +3344,54 @@
     [VdrUrl]    NVARCHAR (100) NULL,
     [VdrAdr]    NVARCHAR (100) NULL,
     [VdrDtPay]  VARCHAR (2)    NULL,
-    [VdrDtC]    DATETIME       NOT NULL,
-    [VdrDtM]    DATETIME       NOT NULL,
+    [VdrDtC]    DATETIME       NULL,
+    [VdrDtM]    DATETIME       NULL,
     [VdrRk]     NVARCHAR (500) NULL,
-    [VdrEn]     CHAR (1)       NOT NULL,
+    [VdrEn]     BIT            NOT NULL,
     PRIMARY KEY CLUSTERED ([VdrNo] ASC)
 );
 GO
+--
+--此Trigger為設定Vdr自動編號，以及同時給定建立日期
+--
 CREATE TRIGGER [dbo].[AutoNoVdr]
    ON  [dbo].[Vdr]
    AFTER INSERT
 AS
 BEGIN
+ SET NOCOUNT ON;
+ DECLARE @prefix_digit int
+ DECLARE @no_prefix CHAR(3) = 'Vdr'
+ SET @prefix_digit = LEN(@no_prefix)
+ DECLARE @num_digit INT = 5
+ DECLARE @rowid CHAR (36)
+ DECLARE @VdrNo CHAR (8) = (SELECT VdrNo FROM inserted)
+ DECLARE @seq INT
+ IF(@VdrNo = '0')
+ BEGIN
+  SET @rowid = (SELECT rowid FROM inserted )
+  SET @VdrNo = ( SELECT TOP 1 VdrNo FROM Vdr ORDER BY VdrNo DESC)
+  IF (@VdrNo IS NULL OR @VdrNo = '0' )
+  BEGIN
+   SET @VdrNo = @no_prefix+REPLICATE('0',@num_digit)
+  END
+  SET @seq = CAST(right( @VdrNo ,@num_digit )AS INT) + 1
+  SET @VdrNo = left(@VdrNo ,@prefix_digit)+right( REPLICATE('0',@num_digit) +CAST (@seq AS NVARCHAR), @num_digit)                
+  UPDATE Vdr SET VdrNo = @VdrNo,VdrDtC=GETDATE() WHERE VdrNo = '0'
+ END
+END
+GO
+--
+--此Trigger為設定Vdr給定修改日期
+--
+CREATE TRIGGER [dbo].[AutoVdrDtM]
+   ON  [dbo].[Vdr]
+   AFTER UPDATE
+AS
+BEGIN
 SET NOCOUNT ON;
-DECLARE @prefix_digit int
-DECLARE @no_prefix CHAR(3) = 'Vdr'
-SET @prefix_digit = LEN(@no_prefix)
-DECLARE @num_digit INT = 5
-DECLARE @rowid CHAR (36)
 DECLARE @VdrNo CHAR (50) = (SELECT VdrNo FROM inserted)
-DECLARE @seq INT
-IF(@VdrNo = '0')
-BEGIN
-SET @rowid = (SELECT rowid FROM inserted )
-SET @VdrNo = ( SELECT TOP 1 VdrNo FROM Vdr ORDER BY VdrNo DESC)
-IF (@VdrNo IS NULL OR @VdrNo = '0' )
-BEGIN
-SET @VdrNo = @no_prefix+REPLICATE('0',@num_digit)
-END
-SET @seq = CAST(right( @VdrNo ,@num_digit )AS INT)+1
-SET @VdrNo = left(@VdrNo ,@prefix_digit)+right( REPLICATE('0',@num_digit) +CAST (@seq AS NVARCHAR), @num_digit)                
-UPDATE Vdr SET VdrNo = @VdrNo WHERE VdrNo = '0'
-END
+UPDATE Vdr SET VdrNo = @VdrNo,VdrDtM=GETDATE() WHERE VdrNo = @VdrNo
 END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5644,11 +5660,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:X133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="24" width="5.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">

--- a/ERP/db.xlsx
+++ b/ERP/db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
@@ -3636,6 +3636,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3671,6 +3688,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5661,7 +5695,7 @@
   <dimension ref="A1:X133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:X133"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
